--- a/prot/356379915/Переход трубопровода через р. Енисей/OCR/1076.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/OCR/1076.xlsx
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="23" t="n">
-        <v>1.062933936703753</v>
+        <v>1.066138755980861</v>
       </c>
       <c r="E28" s="12" t="n"/>
       <c r="F28" s="31" t="n"/>
@@ -3356,43 +3356,43 @@
         <v>0.0125</v>
       </c>
       <c r="O28" s="81" t="n">
-        <v>1.400641940140019</v>
+        <v>1.410944967694479</v>
       </c>
       <c r="P28" s="81" t="n">
-        <v>0.661979316673153</v>
+        <v>0.6607397452745761</v>
       </c>
       <c r="Q28" s="81" t="n">
-        <v>0.9476604098477934</v>
+        <v>0.9561018397092308</v>
       </c>
       <c r="R28" s="81" t="n">
-        <v>0.661979316673153</v>
+        <v>0.6607397452745761</v>
       </c>
       <c r="S28" s="81" t="n">
-        <v>0.9476604098477934</v>
+        <v>0.9561018397092308</v>
       </c>
       <c r="T28" s="81" t="n">
-        <v>0.661979316673153</v>
+        <v>0.6607397452745761</v>
       </c>
       <c r="U28" s="81" t="n">
-        <v>0.9476604098477934</v>
+        <v>0.9561018397092308</v>
       </c>
       <c r="V28" s="81" t="n">
-        <v>1.229299197248831</v>
+        <v>1.236538043698799</v>
       </c>
       <c r="W28" s="81" t="n">
-        <v>0.9291434372099581</v>
+        <v>0.9375427186467741</v>
       </c>
       <c r="X28" s="81" t="n">
-        <v>1.229299197248831</v>
+        <v>1.236538043698799</v>
       </c>
       <c r="Y28" s="81" t="n">
-        <v>0.9291434372099581</v>
+        <v>0.9375427186467741</v>
       </c>
       <c r="Z28" s="81" t="n">
         <v>0.0125</v>
       </c>
       <c r="AA28" s="81" t="n">
-        <v>1.185163991441725</v>
+        <v>1.191092999622084</v>
       </c>
       <c r="AB28" s="81" t="n"/>
       <c r="AC28" s="81" t="n"/>
@@ -3410,10 +3410,10 @@
         <v>0.025</v>
       </c>
       <c r="C29" s="35" t="n">
-        <v>0.01765050633154628</v>
+        <v>0.0161244019138756</v>
       </c>
       <c r="D29" s="23" t="n">
-        <v>1.05057858227167</v>
+        <v>1.054851674641148</v>
       </c>
       <c r="E29" s="12" t="n"/>
       <c r="F29" s="31" t="n"/>
@@ -3427,34 +3427,34 @@
         <v>6.4</v>
       </c>
       <c r="O29" s="81" t="n">
-        <v>0.7596090565772005</v>
+        <v>0.7681463312052608</v>
       </c>
       <c r="P29" s="81" t="n">
         <v>0.8</v>
       </c>
       <c r="Q29" s="81" t="n">
-        <v>0.9476604098477934</v>
+        <v>0.9561018397092308</v>
       </c>
       <c r="R29" s="81" t="n">
         <v>0.8</v>
       </c>
       <c r="S29" s="81" t="n">
-        <v>0.9419949922465876</v>
+        <v>0.9504382015041997</v>
       </c>
       <c r="T29" s="81" t="n">
         <v>0.8</v>
       </c>
       <c r="U29" s="81" t="n">
-        <v>0.9363295746453817</v>
+        <v>0.9447745632991684</v>
       </c>
       <c r="V29" s="81" t="n">
-        <v>1.229299197248831</v>
+        <v>1.236538043698799</v>
       </c>
       <c r="W29" s="81" t="n">
-        <v>0.9291434372099581</v>
+        <v>0.9375427186467741</v>
       </c>
       <c r="X29" s="81" t="n">
-        <v>1.229299197248831</v>
+        <v>1.236538043698799</v>
       </c>
       <c r="Y29" s="81" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>4.00625</v>
       </c>
       <c r="AA29" s="81" t="n">
-        <v>0.8399402228375015</v>
+        <v>0.8493598103032903</v>
       </c>
       <c r="AB29" s="81" t="n"/>
       <c r="AC29" s="81" t="n"/>
@@ -3481,10 +3481,10 @@
         <v>0.05</v>
       </c>
       <c r="C30" s="35" t="n">
-        <v>0.02353400844206171</v>
+        <v>0.02149920255183413</v>
       </c>
       <c r="D30" s="23" t="n">
-        <v>1.038223227839588</v>
+        <v>1.043564593301435</v>
       </c>
       <c r="E30" s="12" t="n"/>
       <c r="F30" s="31" t="n"/>
@@ -3498,34 +3498,34 @@
         <v>8</v>
       </c>
       <c r="O30" s="81" t="n">
-        <v>0.7366794460254749</v>
+        <v>0.745153560045131</v>
       </c>
       <c r="P30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="Q30" s="81" t="n">
-        <v>0.9476604098477934</v>
+        <v>0.9561018397092308</v>
       </c>
       <c r="R30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="S30" s="81" t="n">
-        <v>0.8731108222356976</v>
+        <v>0.8822505236783822</v>
       </c>
       <c r="T30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="U30" s="81" t="n">
-        <v>0.7985612346236016</v>
+        <v>0.8083992076475336</v>
       </c>
       <c r="V30" s="81" t="n">
-        <v>1.229299197248831</v>
+        <v>1.236538043698799</v>
       </c>
       <c r="W30" s="81" t="n">
-        <v>0.9291434372099581</v>
+        <v>0.9375427186467741</v>
       </c>
       <c r="X30" s="81" t="n">
-        <v>1.229299197248831</v>
+        <v>1.236538043698799</v>
       </c>
       <c r="Y30" s="81" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="AA30" s="81" t="n">
-        <v>0.7985612346236008</v>
+        <v>0.808399207647532</v>
       </c>
       <c r="AB30" s="81" t="n"/>
       <c r="AC30" s="81" t="n"/>
@@ -3552,10 +3552,10 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="35" t="n">
-        <v>0.02941751055257713</v>
+        <v>0.02687400318979266</v>
       </c>
       <c r="D31" s="23" t="n">
-        <v>1.03231026564059</v>
+        <v>1.038863488303228</v>
       </c>
       <c r="E31" s="12" t="n"/>
       <c r="F31" s="31" t="n"/>
@@ -3595,10 +3595,10 @@
         <v>0.2</v>
       </c>
       <c r="C32" s="35" t="n">
-        <v>0.03223320683781419</v>
+        <v>0.02911262461751061</v>
       </c>
       <c r="D32" s="23" t="n">
-        <v>1.006807171957315</v>
+        <v>1.014135638919627</v>
       </c>
       <c r="E32" s="12" t="n"/>
       <c r="F32" s="31" t="n"/>
@@ -3638,10 +3638,10 @@
         <v>0.4</v>
       </c>
       <c r="C33" s="35" t="n">
-        <v>0.04437753716318343</v>
+        <v>0.04088779099065401</v>
       </c>
       <c r="D33" s="23" t="n">
-        <v>0.9778019774447723</v>
+        <v>0.9858276360196544</v>
       </c>
       <c r="E33" s="12" t="n"/>
       <c r="F33" s="31" t="n"/>
@@ -3681,10 +3681,10 @@
         <v>0.8</v>
       </c>
       <c r="C34" s="35" t="n">
-        <v>0.05818953455010849</v>
+        <v>0.05436779237159318</v>
       </c>
       <c r="D34" s="23" t="n">
-        <v>0.9363295746453817</v>
+        <v>0.9447745632991684</v>
       </c>
       <c r="G34" s="31" t="n"/>
       <c r="H34" s="31" t="n"/>
@@ -3722,10 +3722,10 @@
         <v>1.6</v>
       </c>
       <c r="C35" s="35" t="n">
-        <v>0.07793829778791349</v>
+        <v>0.07391687461944363</v>
       </c>
       <c r="D35" s="23" t="n">
-        <v>0.8845153165852417</v>
+        <v>0.8931491423561099</v>
       </c>
       <c r="E35" s="12" t="n"/>
       <c r="F35" s="73" t="inlineStr">
@@ -3738,7 +3738,7 @@
       <c r="I35" s="56" t="n"/>
       <c r="J35" s="57" t="n"/>
       <c r="K35" s="46" t="n">
-        <v>1.229299197248831</v>
+        <v>1.236538043698799</v>
       </c>
       <c r="L35" s="13" t="n"/>
       <c r="N35" s="81" t="n"/>
@@ -3771,10 +3771,10 @@
         <v>3.2</v>
       </c>
       <c r="C36" s="35" t="n">
-        <v>0.1026117540070278</v>
+        <v>0.09850040840185248</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>0.8252836643186356</v>
+        <v>0.8339410128489044</v>
       </c>
       <c r="E36" s="12" t="n"/>
       <c r="F36" s="67" t="inlineStr">
@@ -3820,10 +3820,10 @@
         <v>6.4</v>
       </c>
       <c r="C37" s="35" t="n">
-        <v>0.1308173027054116</v>
+        <v>0.126694755786236</v>
       </c>
       <c r="D37" s="23" t="n">
-        <v>0.7596090565772005</v>
+        <v>0.7681463312052608</v>
       </c>
       <c r="E37" s="12" t="n"/>
       <c r="F37" s="67" t="inlineStr">
@@ -3836,7 +3836,7 @@
       <c r="I37" s="49" t="n"/>
       <c r="J37" s="50" t="n"/>
       <c r="K37" s="45" t="n">
-        <v>24.58598394497661</v>
+        <v>24.73076087397598</v>
       </c>
       <c r="L37" s="13" t="n"/>
       <c r="N37" s="81" t="n"/>
@@ -3869,10 +3869,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="36" t="n">
-        <v>0.1620909254394284</v>
+        <v>0.1580255565689234</v>
       </c>
       <c r="D38" s="25" t="n">
-        <v>0.7366794460254749</v>
+        <v>0.745153560045131</v>
       </c>
       <c r="E38" s="12" t="n"/>
       <c r="F38" s="68" t="inlineStr">
@@ -3885,7 +3885,7 @@
       <c r="I38" s="69" t="n"/>
       <c r="J38" s="70" t="n"/>
       <c r="K38" s="47" t="n">
-        <v>1.17929919724883</v>
+        <v>1.186538043698799</v>
       </c>
       <c r="L38" s="13" t="n"/>
       <c r="N38" s="81" t="n"/>
@@ -4191,7 +4191,7 @@
         <v>1.1</v>
       </c>
       <c r="O45" s="91" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="P45" s="88" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>1.1</v>
       </c>
       <c r="S45" s="88" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="T45" s="88" t="n"/>
       <c r="U45" s="81" t="n"/>
@@ -4229,10 +4229,10 @@
         <v>0.0125</v>
       </c>
       <c r="C46" s="35" t="n">
-        <v>0.1103156645721643</v>
+        <v>0.1007775119617225</v>
       </c>
       <c r="D46" s="37" t="n">
-        <v>0.1103156645721643</v>
+        <v>0.1007775119617225</v>
       </c>
       <c r="E46" s="31" t="n"/>
       <c r="F46" s="31" t="n"/>
@@ -4252,13 +4252,13 @@
         <v>1.1</v>
       </c>
       <c r="Q46" s="87" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="R46" s="88" t="n">
         <v>1.1</v>
       </c>
       <c r="S46" s="88" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="T46" s="88" t="n"/>
       <c r="U46" s="81" t="n"/>
@@ -4284,10 +4284,10 @@
         <v>0.025</v>
       </c>
       <c r="C47" s="35" t="n">
-        <v>0.1103156645721643</v>
+        <v>0.1007775119617225</v>
       </c>
       <c r="D47" s="37" t="n">
-        <v>0.2206313291443285</v>
+        <v>0.201555023923445</v>
       </c>
       <c r="E47" s="31" t="n"/>
       <c r="F47" s="31" t="n"/>
@@ -4327,10 +4327,10 @@
         <v>0.05</v>
       </c>
       <c r="C48" s="35" t="n">
-        <v>0.2206313291443285</v>
+        <v>0.201555023923445</v>
       </c>
       <c r="D48" s="37" t="n">
-        <v>0.441262658288657</v>
+        <v>0.40311004784689</v>
       </c>
       <c r="E48" s="31" t="n"/>
       <c r="F48" s="31" t="n"/>
@@ -4370,10 +4370,10 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="35" t="n">
-        <v>0.2111772213927791</v>
+        <v>0.1678966070788457</v>
       </c>
       <c r="D49" s="37" t="n">
-        <v>0.6524398796814361</v>
+        <v>0.5710066549257358</v>
       </c>
       <c r="E49" s="31" t="n"/>
       <c r="F49" s="31" t="n"/>
@@ -4413,10 +4413,10 @@
         <v>0.2</v>
       </c>
       <c r="C50" s="35" t="n">
-        <v>1.821649548805387</v>
+        <v>1.76627495597151</v>
       </c>
       <c r="D50" s="37" t="n">
-        <v>2.474089428486823</v>
+        <v>2.337281610897246</v>
       </c>
       <c r="E50" s="31" t="n"/>
       <c r="F50" s="31" t="n"/>
@@ -4456,10 +4456,10 @@
         <v>0.4</v>
       </c>
       <c r="C51" s="35" t="n">
-        <v>4.14359921607752</v>
+        <v>4.044000414281754</v>
       </c>
       <c r="D51" s="37" t="n">
-        <v>6.617688644564343</v>
+        <v>6.381282025179</v>
       </c>
       <c r="E51" s="31" t="n"/>
       <c r="F51" s="31" t="n"/>
@@ -4499,10 +4499,10 @@
         <v>0.8</v>
       </c>
       <c r="C52" s="35" t="n">
-        <v>11.849257942683</v>
+        <v>11.72944934871027</v>
       </c>
       <c r="D52" s="37" t="n">
-        <v>18.46694658724734</v>
+        <v>18.11073137388927</v>
       </c>
       <c r="E52" s="31" t="n"/>
       <c r="F52" s="73" t="inlineStr">
@@ -4548,10 +4548,10 @@
         <v>1.6</v>
       </c>
       <c r="C53" s="35" t="n">
-        <v>29.60814746293712</v>
+        <v>29.50024053889062</v>
       </c>
       <c r="D53" s="37" t="n">
-        <v>48.07509405018446</v>
+        <v>47.61097191277989</v>
       </c>
       <c r="E53" s="31" t="n"/>
       <c r="F53" s="67" t="inlineStr">
@@ -4597,10 +4597,10 @@
         <v>3.2</v>
       </c>
       <c r="C54" s="35" t="n">
-        <v>67.69331687612126</v>
+        <v>67.66643372252051</v>
       </c>
       <c r="D54" s="37" t="n">
-        <v>115.7684109263057</v>
+        <v>115.2774056353004</v>
       </c>
       <c r="E54" s="31" t="n"/>
       <c r="F54" s="67" t="inlineStr">
@@ -4646,10 +4646,10 @@
         <v>6.4</v>
       </c>
       <c r="C55" s="36" t="n">
-        <v>150.1133891232803</v>
+        <v>150.3878437568997</v>
       </c>
       <c r="D55" s="38" t="n">
-        <v>265.881800049586</v>
+        <v>265.6652493922001</v>
       </c>
       <c r="E55" s="31" t="n"/>
       <c r="F55" s="68" t="inlineStr">
@@ -4695,7 +4695,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="31" t="n">
-        <v>78.61580760591636</v>
+        <v>78.8323582633023</v>
       </c>
       <c r="D56" s="31" t="n">
         <v>344.4976076555024</v>
